--- a/2024-11-11_Sammlung_Netzwerk-Output.xlsx
+++ b/2024-11-11_Sammlung_Netzwerk-Output.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stefanie.legler\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A195F15-F013-49F5-971E-FF265BE785AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{294CF5EC-C6D3-436D-968B-3AFCCDB99770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-3555" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OUTPUT Liascript" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="398">
   <si>
     <t>Titel</t>
   </si>
@@ -598,9 +598,6 @@
     <t>PDF-Editor</t>
   </si>
   <si>
-    <t>Einem Vortrag zu lauschen ist eine angenehme Art, etwas über OER zu lernen.</t>
-  </si>
-  <si>
     <t>Manchmal müssen es **nicht offen lizenzierte** Materialien sein. Wie darf man die in ein OER einbinden?</t>
   </si>
   <si>
@@ -619,33 +616,18 @@
     <t>Open Educational Culture (OEC) bedeutet, dass Wissen und Ressourcen frei und offen geteilt werden, um den Bildungszugang für alle leichter zu machen. In diesen Texten wird aufgezeigt, wo eine solche Open Educational Culture an Hochschulen sichtbar wird und weshalb sie sinnvoll ist.</t>
   </si>
   <si>
-    <t>Teilen in der Lehre? - Warum eigentlich nicht! Wie man Sichtbarkeit schafft und eine **Kultur des Teilens fördert**, zeigt diese Handlungsempfehlung für Hochschulen auf.</t>
-  </si>
-  <si>
     <t>Was bedeutet eine "Open Educational Culture" im Kontext von Open Educational Resources? Mit dieser Frage haben sich die Netzwerkstellen des Landesportals, im Kern eine Arbeitsgruppe zum Thema "Open Educational Culture", seit Beginn des Jahres 2021 beschäftigt. Das Nachfolgende ist ein Ausdruck der kondensierten Werte, Einstellungen und Verhaltensweisen, die aus Sicht der Netzwerkstellen und gleichzeitigen OER-Expert*innen grundlegend sind, um eine Open Educational Culture (OEC) aktiv zu leben. Gerade das Vorleben dieser Werte (durch jede*n Einzelne*n) schafft neue Erfahrungsräume und fördert eine Open Educational Culture. Sie ermöglichen es jedoch auch, zu spüren und zu beobachten, wo im System der Hochschule und bei ihren jeweiligen Akteur*innen eine Open Educational Culture bereits stattfindet oder aber sich zu entwickeln beginnt. Die Schärfung des Verständnisses einer Open Educational Culture stellt letztlich eine gemeinsame Leitlinie im Themenfeld OER und im Handlungsfeld Lehre bereit.</t>
   </si>
   <si>
-    <t xml:space="preserve">Die Schärfung des Verständnisses für eine Open Educational Culture dient letztlich als gemeinsame Leitlinie im Bereich OER und in der Lehre, um alle Beteiligten zu inspirieren und zu unterstützen! **Gemeinsam stärken** wir die offene Bildungslandschaft! </t>
-  </si>
-  <si>
     <t>Wer darüber nachdenkt, Open Educational Resources (OER) selbst zu nutzen, zu bearbeiten oder neu zu erstellen, entdeckt schnell, dass es eine Reihe von technischen, inhaltlichen oder rechtlichen Bedenken hierzu geben kann. In diesem Text geht es darum, sie  aufzugreifen, zu beleuchten und ihnen konstruktiv zu begegnen. Aus der Diversität der Perspektiven auf das Thema resultieren unterschiedliche Herangehensweisen und Stilrichtungen in den einzelnen Kapiteln.</t>
   </si>
   <si>
-    <t>Was motiviert? Was hindert? Der Beratungsalltag von OER-Experten und eine NRW-weite Umfrage identifizierten Stolpersteine auf dem Weg zu einer offenen Bildungslandschaft. Dem zu begegnen, zeigt dieser Text auf.</t>
-  </si>
-  <si>
     <t>Mit dem OER-Feedbackrad trainieren Lehrende, sich gegenseitig zu einer selbst erstellten Open Educational Resource Feedback zu geben. Dabei können sie den Fokus im Gespräch auf unterschiedliche Kategorien legen. Alternativ kann hiermit zu einer gefundenen/bereitgestellten OER Feedback gegeben werden.</t>
-  </si>
-  <si>
-    <t>Endlich eine **einfache plakative Methode**, wie man sich kollegial austauschen kann zu selbst erstelltem OER-Material. Das Feebackrad sieht nicht nur gut aus, sondern kommt mit einem **Trainingskonzept** daher.</t>
   </si>
   <si>
     <t>Diese Handreichung ist das Ergebnis einer Kooperation im Rahmen des Netzwerks, den OER-Expert*innen der NRW-Hochschulen, im Open Resources Campus NRW (ORCA.nrw). Hierbei widmen sich die OER-Expert*innen der Etablierung und Unterstützung einer Open Educational Culture an Universitäten, Hochschulen für Angewandte Wissenschaften sowie Musik- und Kunsthochschulen und geben praktische Tipps und Anleitungen, wie das gelingen kann.
 Im vorliegenden Dokument, das Teil der Handlungsempfehlungen ist, beschäftigen wir uns mit dem Aspekt, wie Austauschformate zur Förderung einer Open Educational Culture an der Hochschule beitragen können.
 Dieser Handreichungsteil richtet sich primär an OER-Multiplikator*innen, die an ihren Bildungseinrichtungen eine Open Educational Culture fördern wollen.</t>
-  </si>
-  <si>
-    <t>Was darf's denn sein? Sprechstunde, Workshop, Konferenz, Vernetzungsformat? Wie man OER-Unkundige begeistert, OER-Skeptiker*innen überzeugt oder OER-Interessierte berät zeigt diese Handlungsempfehlung.</t>
   </si>
   <si>
     <t>Niemann, Andrea; Schotemeier, Sarah;  Funk, Christian</t>
@@ -784,11 +766,6 @@
   </si>
   <si>
     <t xml:space="preserve">
-"graphic": true,
-"video": true,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
 Plakat
 Video</t>
   </si>
@@ -1048,12 +1025,6 @@
     <t>Video_FreieBildungsressourcen_UPB_ALLERECHTEVORBEHALTEN</t>
   </si>
   <si>
-    <t>Audio_FreieBildungsressourcen_UPB_ALLERECHTEVORBEHALTEN</t>
-  </si>
-  <si>
-    <t>Textdokument_ORCA-Soziotechnisches-Netzwerk_CCBY</t>
-  </si>
-  <si>
     <t>Video_OER-Testimonials_DO_CCBY</t>
   </si>
   <si>
@@ -1073,9 +1044,6 @@
   </si>
   <si>
     <t>Praesentation_OER-Japanologie_CCBYSA</t>
-  </si>
-  <si>
-    <t>PRAESENTATION_OER-Policy-Fragen_ALLERECHTEVORBEHALTEN</t>
   </si>
   <si>
     <t>Grafik_Postkarte-TULLUBA_CCBY</t>
@@ -1239,6 +1207,360 @@
   </si>
   <si>
     <t>Dieser ‘Artikel‘ erläutert, wie das **Landesportal ORCA.nrw** und die **lokalen Netzwerkstellen den Weg für eine **digitale, offene und vernetzte Hochschullehre** ebnen. So entsteht durch **synergetische Zusammenarbeit** eine echte **Kultur des Teilens** zwischen Hochschulen in NRW!</t>
+  </si>
+  <si>
+    <t>Der 'Beitrag' beleuchtet die **Entwicklung des Landesportals ORCA.nrw**, das eine zentrale Plattform für Open Educational Resources (OER) für Hochschulen in Nordrhein-Westfalen bereitstellt. Ziel ist es, durch eine **gemeinschaftlich getragene Infrastruktur** Lehrmaterialien, Informationen und Services digital zugänglich zu machen und die **Zusammenarbeit zwischen Hochschulen** zu fördern. Die **lokale Vernetzung und institutionelle Begleitung** der Lehrenden unterstützen die Nutzung und Erstellung von OER und tragen zur digitalen Transformation im Bildungsbereich bei.</t>
+  </si>
+  <si>
+    <t>Der Artikel zeigt, wie durch **koordinierte Zusammenarbeit über Hochschulgrenzen** hinweg innovative Lehrkonzepte entstehen können. Er bietet zudem wertvolle Impulse zu **institutionellen Supportstrukturen** für OER.</t>
+  </si>
+  <si>
+    <t>Einem Vortrag zu lauschen ist eine angenehme Art, etwas über OER zu lernen. 
+In der Lernpause werden in einer halben Stunde die **Merkmale und Mehrwerte von OER** für die Hochschullehre vorgestellt.</t>
+  </si>
+  <si>
+    <t>Audio_Zugehoert-080_CCBY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"oer_finden": true,
+"oer_lernen": true,
+"oer_lehren": true,
+"oer_einfuehren": true,
+"oer_managen": true,
+</t>
+  </si>
+  <si>
+    <t>Netzwerk; ORCA.nrw; Service; Herausforderungen; Plattform; zugehOERt!; Podcast; Hochschule</t>
+  </si>
+  <si>
+    <t>Im ‘Podcast‘ teilen die Geschäftsführung von ORCA.nr, dem im August 2021 gestarteten Landesportal für Studium und Lehre, sowie Vertreter:innen der beteiligten Hochschulformen (Universitäten, HAWs, Kunst- und Musikhochschulen) **Einblicke in ihre Aufgaben und Verantwortungsbereiche. Konkrete Themen sind die **Entstehung des Portals**, die **Aufgaben der Geschäftsstelle und der Netzwerkstellen**, die spezifischen **Herausforderungen der verschiedenen Hochschulformen** sowie die **Services**, die die Plattform bietet. Zudem wird erläutert, woher die Open Educational Resources (OER) kommen und wie sie genutzt werden können.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Neugierig auf ORCA.nrw?**
+Das Landesportal für Studium und Lehre stellt sich vor und gibt **spannende Einblicke**, wie die Plattform entstand, welche **Services** das Netzwerk bietet und warum OER die **Hochschullehre** bereichern können. </t>
+  </si>
+  <si>
+    <t>Jahn, Markus; Kober, Sabine; Reichardt, Gabi</t>
+  </si>
+  <si>
+    <t>Geurden, Bianca</t>
+  </si>
+  <si>
+    <t>Jahn, Markus; Kober, Sabine; Schotemeier, Sarah;  Schütgens; Robin</t>
+  </si>
+  <si>
+    <t>Robin -- Namen ändern?</t>
+  </si>
+  <si>
+    <t>Heckmann, Henrike; Hörmann, Irina; Jahn,  Markus; Méndez Parente, Josefine</t>
+  </si>
+  <si>
+    <t>[Twillo](https://www.twillo.de/edu-sharing/components/render/528057a1-414b-4fd0-a39d-f49b10a3adaf )</t>
+  </si>
+  <si>
+    <t>[Twillo](https://www.twillo.de/edu-sharing/components/render/f1ae38bf-aa63-4116-a607-dbd9ce02c0a5)</t>
+  </si>
+  <si>
+    <t>[Twillo](https://www.twillo.de/edu-sharing/components/render/6d7baa1b-07cf-497a-a10b-69e3deb0489d)</t>
+  </si>
+  <si>
+    <t>[Twillo](https://www.twillo.de/edu-sharing/components/render/0aec2d6e-e83e-4124-91ee-39a2b2449e0c)</t>
+  </si>
+  <si>
+    <t>[Twillo](https://www.twillo.de/edu-sharing/components/render/aa67b800-5e36-40bf-a4d0-590ec4f40b11 )</t>
+  </si>
+  <si>
+    <t>Fuchs,Michael; Ergänzungen von: Braungardt, Kathrin; Görlich, Sarah</t>
+  </si>
+  <si>
+    <t>Hörmann, Irina</t>
+  </si>
+  <si>
+    <t>AG Workshops Netzwerk Landesportal ORCA.nrw</t>
+  </si>
+  <si>
+    <t>[Twillo]()</t>
+  </si>
+  <si>
+    <r>
+      <t>Einzelne Links: https://www.twillo.de/edu-sharing/components/render/1a85284a-1c72-46aa-b293-64434bf7f1ed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+https://www.twillo.de/edu-sharing/components/render/dbde690d-ed65-4f56-b015-9692c5ac21cb
+https://www.twillo.de/edu-sharing/components/render/d514b92c-a976-45d3-ab84-003fe7b06af0
+https://www.twillo.de/edu-sharing/components/render/ad6c6013-0e4d-46a4-94d9-d91e04d97259
+https://www.twillo.de/edu-sharing/components/render/ae676748-9c7c-4986-8126-2f49fc20175c -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>--&gt; gibts ne Sammlung?! Sonst ggf. in 5 aufteilen</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">
+PDF
+png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+PDF-Editor
+Bildverarbeitungsprogramme</t>
+  </si>
+  <si>
+    <t>Moodle-Kurs</t>
+  </si>
+  <si>
+    <t>Moodle</t>
+  </si>
+  <si>
+    <t>[Moodle RUB](https://moodle.ruhr-uni-bochum.de/course/view.php?id=21966)</t>
+  </si>
+  <si>
+    <t>[Twillo](https://www.twillo.de/edu-sharing/components/render/c33ec60c-3d55-4052-913d-322fb759e540)</t>
+  </si>
+  <si>
+    <t>PPT</t>
+  </si>
+  <si>
+    <t>Powerpoint</t>
+  </si>
+  <si>
+    <t>[Twillo](https://www.twillo.de/edu-sharing/components/render/5f003452-5022-4f39-bfa2-305086fc312d)</t>
+  </si>
+  <si>
+    <t>Selbstlernkurs_OER-HSNR_CCBYSA</t>
+  </si>
+  <si>
+    <t>Selbstlernkurs_Lehre-Lernen-oeffnen-OER-RUB_CCBYSA</t>
+  </si>
+  <si>
+    <t>Grafik_Was-darf-ich-fuer-OER-verwenden_CCBY</t>
+  </si>
+  <si>
+    <t>Praesentation_OER-Policy-Fragen_ALLERECHTEVORBEHALTEN</t>
+  </si>
+  <si>
+    <t>Praesentation_OER-Basifolien_CCBY</t>
+  </si>
+  <si>
+    <t>Textdokument_Sichtbarkeit-OEC-an-HS_CCBY</t>
+  </si>
+  <si>
+    <t>Textdokument_Werteverstaendnis-OEC_CCBY</t>
+  </si>
+  <si>
+    <t>Textdokument_Bedenken-zu-OER-begegnen_CCBY</t>
+  </si>
+  <si>
+    <t>Textdokument_Feedbackrad_CCBY</t>
+  </si>
+  <si>
+    <t>Textdokument_Austauschformate-Foerderung-OEC-HS_CCBY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+"praktiker": true, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+"oer_herstellen": true,
+"oer_lehren": true,</t>
+  </si>
+  <si>
+    <t>OER-Projekte stellen sich im Video vor!
+Das Format des **Dortmunder OER-Zirkels** ist ein gutes Praxisbeispiel, für eine Möglichkeit, **OER und die Personen dahinter sichtbar zu machen**.</t>
+  </si>
+  <si>
+    <t>In diesem ‘Video‘ geben die Netzwerkstellen eine umfassende **Einführung in die Welt der Open Educational Resources** (OER) und **Creative Commons-Lizenzen**. Der Clou: DieUmsetzung erfolgt als Video einer vertonten Folienpräsentation. Jede Netzwerkstelle übernimmt dabei einen speziellen **Themenbereich**: von der grundlegenden Erklärung, was OER bedeutet, über die Prinzipien der offenen Lizensierung und mögliche Einschränkungen der „5 Freiheiten“ durch die verschiedenen CC-Lizenzmodule bis hin zur Kombination der Module. **Konkrete Beispiele und Layoutvorschläge für die Darstellung der Lizenzangaben** runden den Vortrag ab und bieten praktische Anwendungshilfen für die eigene OER-Erstellung.</t>
+  </si>
+  <si>
+    <t>In diesem Video geht es einerseits um **CC-Lizenzen**, andererseits darum, praktisch zu zeigen, wie einfach die Umsetzung von **vertonten Präsentationen als Lehrvideo** sein kann!
+Als **Bonus** zum Schluss: Inspiration zur Darstellung von CC-Lizenzen!</t>
+  </si>
+  <si>
+    <t>Video_ORCA-Soziotechnisches-Netzwerk_CCBY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+"graphic": true,</t>
+  </si>
+  <si>
+    <t>Graphik_ORCA-Soziotechnisches-Netzwerk_CCBY</t>
+  </si>
+  <si>
+    <t>Das 'Plakat' stellt ORCA.nrw vor, ein **sozio-technisches Netzwerk für offene Bildungsressourcen (OER)** in Nordrhein-Westfalen. Es beschreibt den Prozess von der Idee zur Veröffentlichung von Lehrmaterialien über ORCA.nrw **in fünf Schritten**: von der ersten Idee, OER in der Lehre einzusetzen, über die Unterstützung durch Netzwerkstellen und die Nutzung bestehender Materialien, bis hin zur Veröffentlichung und dem Teilen der Inhalte. Ziel ist es, Kooperation und Austausch zwischen den Hochschulen zu fördern und Lehrmaterialien gemeinsam zu nutzen und weiterzuentwickeln.</t>
+  </si>
+  <si>
+    <t>Es ist ganz einfach, Lehrmaterialien als OER zu veröffentlichen und von einer **starken Community in NRW** zu profitieren! Das Plakat zeigt **kompakt in fünf Schritten**, wie ORCA.nrw Lehrende zusammenbringt und begleitet.</t>
+  </si>
+  <si>
+    <t>Das 'Video' führt durch ein Tagungsplakat. Dieses stellt ORCA.nrw vor, ein **sozio-technisches Netzwerk für offene Bildungsressourcen (OER)** in Nordrhein-Westfalen. Beschrieben wird der Prozess von der Idee zur Veröffentlichung von Lehrmaterialien über ORCA.nrw **in fünf Schritten**: von der ersten Idee, OER in der Lehre einzusetzen, über die Unterstützung durch Netzwerkstellen und die Nutzung bestehender Materialien, bis hin zur Veröffentlichung und dem Teilen der Inhalte. Ziel ist es, Kooperation und Austausch zwischen den Hochschulen zu fördern und Lehrmaterialien gemeinsam zu nutzen und weiterzuentwickeln.</t>
+  </si>
+  <si>
+    <t>Es ist ganz einfach, Lehrmaterialien als OER zu veröffentlichen und von einer **starken Community in NRW** zu profitieren! Im Video werden **fünf Schritten** erläutert, mit denen ORCA.nrw Lehrende zusammenbringt und begleitet.</t>
+  </si>
+  <si>
+    <t>"oer_finden": true,
+"oer_herstellen": true,
+"oer_einfuehren": true,
+"oer_managen": true,</t>
+  </si>
+  <si>
+    <t>! 2024</t>
+  </si>
+  <si>
+    <t>Policy Kit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+"oer_herstellen": true,
+"oer_einfuehren": true,
+</t>
+  </si>
+  <si>
+    <t>OER; Urheberrecht; Creative Commons; Zitatrecht; Open Educational Resources; Lehrmaterialien; Medienproduktion; gemeinfrei</t>
+  </si>
+  <si>
+    <t>Der ‘Moodle-Kurs‘ bietet Lehrenden, Studierenden und allen Interessierten einen **Einstieg** in die Welt der Open Educational Resources (OER) und die Nutzung von Creative Commons-Lizenzen. Der Kurs besteht aus **drei unabhängig voneinander bearbeitbaren Abschnitten**: Einführung in OER, Erklärung von CC-Lizenzen und Empfehlungen zur Öffnung von Lehre und Lernen, speziell an der Ruhr-Universität Bochum. In einer Bearbeitungszeit von je 15 bis 20 Minuten pro Einheit lernen die Teilnehmenden, wie sie **OER finden, nutzen, erstellen und ihre eigenen Inhalte für eine offene Lehre gestalten** können.</t>
+  </si>
+  <si>
+    <t>**In einer Stunde die Basics zur OER** (kennen)lernen! Und das wann und wo ich will, dank des offenen Selbstlernkurses in **Moodle**.</t>
+  </si>
+  <si>
+    <t>Irina nach Screenshot fragen!</t>
+  </si>
+  <si>
+    <t>"oer_lehren": true,
+"oer_managen": true,
+"oer_forschen": true</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+"oer_herstellen": true,
+"oer_lehren": true,
+"oer_managen": true,
+"oer_forschen": true</t>
+  </si>
+  <si>
+    <t>"oer_finden": true,
+"oer_lehren": true,
+"oer_managen": true,
+"oer_forschen": true</t>
+  </si>
+  <si>
+    <t>Moodle-Kurs: OER-Beispiele; CC-Lizenzen</t>
+  </si>
+  <si>
+    <t>Word-Dokument</t>
+  </si>
+  <si>
+    <t>Was darf's denn sein? **Sprechstunde, Workshop, Konferenz, oder ein anderes Vernetzungsformat?** Wie man OER-Unkundige begeistert, OER-Skeptiker*innen überzeugt oder OER-Interessierte berät zeigt diese Handlungsempfehlung.</t>
+  </si>
+  <si>
+    <t>**Teilen in der Lehre? Warum eigentlich nicht!** Wie man Sichtbarkeit schafft und eine **Kultur des Teilens fördert**, zeigt diese Handlungsempfehlung für Hochschulen auf.</t>
+  </si>
+  <si>
+    <t>"einsteiger": true,
+ "experte": true</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Schärfung des Verständnisses für eine Open Educational Culture dient letztlich als **gemeinsame Leitlinie** im Bereich OER und in der Lehre, um alle Beteiligten zu inspirieren und zu unterstützen! **Gemeinsam stärken wir die offene Bildungslandschaft!** </t>
+  </si>
+  <si>
+    <t>Endlich eine **einfache plakative Methode**, wie man sich zu selbst erstelltem OER-Material kollegial austauschen kann. Das Feebackrad sieht nicht nur gut aus, sondern kommt zudem mit einem **Trainingskonzept** daher.</t>
+  </si>
+  <si>
+    <t>Der **Beratungsalltag** von OER-Expert:innen und eine NRW-weite Umfrage identifizierten **Stolpersteine** auf dem Weg zu einer offenen Bildungslandschaft. Wie dem begegnet werden kann, zeigt dieser Text auf.</t>
+  </si>
+  <si>
+    <t>OER Produktion; Open Educational Culture; Kultur des Teilens; Rechtlicher Rahmen; KI; Bedenken begegnen; Persönliche Bedenken; OER-Inhalt; Technik</t>
+  </si>
+  <si>
+    <t>Feedback; Feedbackkultur; OER-Feedbackrad; Open Educationals Culture; OEC; Kultur des Teilens; OER; Trainingskonzept</t>
+  </si>
+  <si>
+    <t>OER; Open Educationals Cuture; Kultur des Teilens; Offenheit; Austauschformate; Beratung; Innovationsdiffusionstheorie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"einsteiger": true,
+"praktiker": true, </t>
+  </si>
+  <si>
+    <t>"oer_einfuehren": true,
+"oer_managen": true,</t>
+  </si>
+  <si>
+    <t>Das Kurzportraut zum Landesportal ORCA.nrw bringt die Vorzüge der sozio-technischen Infrastrukturmaßnahme auf den Punkt.</t>
+  </si>
+  <si>
+    <t>[Twillo] (https://www.twillo.de/edu-sharing/components/render/c46f1f75-3632-429e-9fea-04a9f18c040e)</t>
+  </si>
+  <si>
+    <t>[OER Info](https://open-educational-resources.de/offene-bildungsressourcen-bringt-das-was/)</t>
+  </si>
+  <si>
+    <t>OER-Policy</t>
+  </si>
+  <si>
+    <t>"oer_forschen": true</t>
+  </si>
+  <si>
+    <t>"experte": true</t>
+  </si>
+  <si>
+    <t>Wirkungsforschung; Lizenzen; Metastudie; OER; Open Educational Resources; Lernerfolg
+Lehr-Lern-Kultur;
+OER-Strategie
+Hochschullehre
+Kollaboration; Kooperation;
+Metaanalyse;
+Prozessorientierung; Outputorientierung;
+Open Educational Practices (OEP); Kultur des Teilens</t>
+  </si>
+  <si>
+    <t>Policy Kit Team</t>
+  </si>
+  <si>
+    <t>Funk, Christian; Legler, Stefanie; Rosenthal, Florian; Homp, Frank; Kober, Sabine</t>
+  </si>
+  <si>
+    <t>Markdown, Liascript</t>
+  </si>
+  <si>
+    <t>Texteditor</t>
+  </si>
+  <si>
+    <t>Webseite_Policy-Kit_CCBYSA</t>
+  </si>
+  <si>
+    <t>Offene Bildungsressourcen (OER) – bringt das was?</t>
+  </si>
+  <si>
+    <t>Textdokument_OER-bringt-das-was_CCBY</t>
   </si>
 </sst>
 </file>
@@ -1352,7 +1674,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1425,6 +1747,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1447,7 +1781,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1527,9 +1861,6 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1539,9 +1870,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1587,9 +1915,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1608,12 +1933,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1647,6 +1966,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1660,6 +1982,42 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1889,14 +2247,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P47"/>
+  <dimension ref="A1:P52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="I13" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="E44" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
-      <selection pane="bottomRight" activeCell="O15" sqref="O15"/>
+      <selection pane="bottomRight" activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1913,7 +2271,7 @@
     <col min="13" max="13" width="2.7265625" style="4" customWidth="1"/>
     <col min="14" max="14" width="68.08984375" style="4" customWidth="1"/>
     <col min="15" max="15" width="42" style="1" customWidth="1"/>
-    <col min="16" max="16" width="31.81640625" style="4" customWidth="1"/>
+    <col min="16" max="16" width="49.54296875" style="4" customWidth="1"/>
     <col min="17" max="16384" width="10.90625" style="4"/>
   </cols>
   <sheetData>
@@ -1958,7 +2316,7 @@
         <v>45</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="6" customFormat="1" ht="130.5" x14ac:dyDescent="0.35">
@@ -1984,18 +2342,18 @@
         <v>41</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="O2" s="20" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="O3" s="21"/>
     </row>
     <row r="4" spans="1:16" ht="116" x14ac:dyDescent="0.35">
-      <c r="A4" s="67"/>
-      <c r="B4" s="52" t="s">
+      <c r="A4" s="62"/>
+      <c r="B4" s="49" t="s">
         <v>59</v>
       </c>
       <c r="C4" s="14" t="s">
@@ -2031,13 +2389,13 @@
       <c r="N4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="O4" s="53" t="s">
-        <v>265</v>
+      <c r="O4" s="50" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="67"/>
-      <c r="B5" s="52" t="s">
+      <c r="A5" s="62"/>
+      <c r="B5" s="49" t="s">
         <v>95</v>
       </c>
       <c r="C5" s="11" t="s">
@@ -2049,8 +2407,8 @@
       <c r="E5" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="F5" s="55" t="s">
-        <v>268</v>
+      <c r="F5" s="52" t="s">
+        <v>261</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>81</v>
@@ -2058,7 +2416,7 @@
       <c r="H5" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="I5" s="55" t="s">
+      <c r="I5" s="52" t="s">
         <v>50</v>
       </c>
       <c r="J5" s="9" t="s">
@@ -2073,13 +2431,13 @@
       <c r="N5" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="O5" s="54" t="s">
-        <v>269</v>
+      <c r="O5" s="51" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="67"/>
-      <c r="B6" s="52" t="s">
+      <c r="A6" s="62"/>
+      <c r="B6" s="49" t="s">
         <v>94</v>
       </c>
       <c r="C6" s="16" t="s">
@@ -2100,7 +2458,7 @@
       <c r="H6" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="I6" s="55" t="s">
+      <c r="I6" s="52" t="s">
         <v>91</v>
       </c>
       <c r="J6" s="10" t="s">
@@ -2115,13 +2473,13 @@
       <c r="N6" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="O6" s="54" t="s">
-        <v>267</v>
+      <c r="O6" s="51" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="87" x14ac:dyDescent="0.35">
-      <c r="A7" s="67"/>
-      <c r="B7" s="52" t="s">
+      <c r="A7" s="62"/>
+      <c r="B7" s="49" t="s">
         <v>93</v>
       </c>
       <c r="C7" s="16" t="s">
@@ -2133,7 +2491,7 @@
       <c r="E7" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F7" s="55" t="s">
+      <c r="F7" s="52" t="s">
         <v>96</v>
       </c>
       <c r="G7" s="4" t="s">
@@ -2157,35 +2515,35 @@
       <c r="N7" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="O7" s="54" t="s">
-        <v>266</v>
+      <c r="O7" s="51" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="67"/>
-      <c r="B8" s="52" t="s">
+      <c r="A8" s="62"/>
+      <c r="B8" s="76" t="s">
         <v>85</v>
       </c>
-      <c r="C8" s="44" t="s">
+      <c r="C8" s="42" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="17" t="s">
         <v>123</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="F8" s="55" t="s">
+        <v>168</v>
+      </c>
+      <c r="F8" s="52" t="s">
         <v>88</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="H8" s="56" t="s">
+      <c r="H8" s="53" t="s">
         <v>143</v>
       </c>
-      <c r="I8" s="56" t="s">
-        <v>271</v>
+      <c r="I8" s="53" t="s">
+        <v>264</v>
       </c>
       <c r="J8" s="10" t="s">
         <v>73</v>
@@ -2199,13 +2557,13 @@
       <c r="N8" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="O8" s="54" t="s">
-        <v>270</v>
+      <c r="O8" s="51" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="116" x14ac:dyDescent="0.35">
-      <c r="A9" s="67"/>
-      <c r="B9" s="52" t="s">
+      <c r="A9" s="62"/>
+      <c r="B9" s="49" t="s">
         <v>106</v>
       </c>
       <c r="C9" s="11" t="s">
@@ -2217,7 +2575,7 @@
       <c r="E9" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="F9" s="55" t="s">
+      <c r="F9" s="52" t="s">
         <v>103</v>
       </c>
       <c r="G9" s="4" t="s">
@@ -2238,16 +2596,16 @@
       <c r="L9" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="N9" s="55" t="s">
+      <c r="N9" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="O9" s="54" t="s">
-        <v>273</v>
+      <c r="O9" s="51" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="68"/>
-      <c r="B10" s="52" t="s">
+      <c r="A10" s="63"/>
+      <c r="B10" s="49" t="s">
         <v>105</v>
       </c>
       <c r="C10" s="18" t="s">
@@ -2259,7 +2617,7 @@
       <c r="E10" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="F10" s="64" t="s">
+      <c r="F10" s="59" t="s">
         <v>108</v>
       </c>
       <c r="G10" s="4" t="s">
@@ -2283,13 +2641,13 @@
       <c r="N10" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="O10" s="65" t="s">
-        <v>299</v>
+      <c r="O10" s="60" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="68"/>
-      <c r="B11" s="52" t="s">
+      <c r="A11" s="63"/>
+      <c r="B11" s="49" t="s">
         <v>124</v>
       </c>
       <c r="C11" s="16" t="s">
@@ -2301,8 +2659,8 @@
       <c r="E11" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="F11" s="64" t="s">
-        <v>298</v>
+      <c r="F11" s="59" t="s">
+        <v>288</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>119</v>
@@ -2322,16 +2680,16 @@
       <c r="L11" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="N11" s="64" t="s">
+      <c r="N11" s="59" t="s">
         <v>122</v>
       </c>
-      <c r="O11" s="65" t="s">
-        <v>297</v>
+      <c r="O11" s="60" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="87" x14ac:dyDescent="0.35">
-      <c r="A12" s="68"/>
-      <c r="B12" s="52" t="s">
+      <c r="A12" s="63"/>
+      <c r="B12" s="49" t="s">
         <v>131</v>
       </c>
       <c r="C12" s="16" t="s">
@@ -2343,7 +2701,7 @@
       <c r="E12" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="F12" s="64" t="s">
+      <c r="F12" s="59" t="s">
         <v>129</v>
       </c>
       <c r="G12" s="4" t="s">
@@ -2367,13 +2725,13 @@
       <c r="N12" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="O12" s="65" t="s">
-        <v>148</v>
+      <c r="O12" s="60" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="58" x14ac:dyDescent="0.35">
-      <c r="A13" s="68"/>
-      <c r="B13" s="52" t="s">
+      <c r="A13" s="63"/>
+      <c r="B13" s="49" t="s">
         <v>135</v>
       </c>
       <c r="C13" s="16" t="s">
@@ -2385,7 +2743,7 @@
       <c r="E13" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="F13" s="55" t="s">
+      <c r="F13" s="52" t="s">
         <v>140</v>
       </c>
       <c r="G13" s="4" t="s">
@@ -2400,22 +2758,22 @@
       <c r="J13" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="K13" s="69" t="s">
+      <c r="K13" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="L13" s="39" t="s">
-        <v>215</v>
+      <c r="L13" s="37" t="s">
+        <v>208</v>
       </c>
       <c r="N13" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="O13" s="57" t="s">
-        <v>272</v>
+      <c r="O13" s="54" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="210" x14ac:dyDescent="0.35">
-      <c r="A14" s="68"/>
-      <c r="B14" s="52" t="s">
+      <c r="A14" s="63"/>
+      <c r="B14" s="49" t="s">
         <v>145</v>
       </c>
       <c r="C14" s="11" t="s">
@@ -2424,10 +2782,10 @@
       <c r="D14" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="E14" s="64" t="s">
+      <c r="E14" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="F14" s="64" t="s">
+      <c r="F14" s="59" t="s">
         <v>142</v>
       </c>
       <c r="G14" s="10" t="s">
@@ -2436,7 +2794,7 @@
       <c r="H14" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="I14" s="61" t="s">
+      <c r="I14" s="56" t="s">
         <v>91</v>
       </c>
       <c r="J14" s="10" t="s">
@@ -2448,898 +2806,1268 @@
       <c r="L14" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="N14" s="66" t="s">
-        <v>295</v>
-      </c>
-      <c r="O14" s="63" t="s">
-        <v>296</v>
-      </c>
-      <c r="P14" s="64" t="s">
-        <v>294</v>
+      <c r="N14" s="61" t="s">
+        <v>285</v>
+      </c>
+      <c r="O14" s="58" t="s">
+        <v>286</v>
+      </c>
+      <c r="P14" s="59" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="188.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="68"/>
-      <c r="B15" s="73" t="s">
-        <v>274</v>
-      </c>
-      <c r="C15" s="60" t="s">
-        <v>176</v>
+      <c r="A15" s="63"/>
+      <c r="B15" s="69" t="s">
+        <v>267</v>
+      </c>
+      <c r="C15" s="55" t="s">
+        <v>170</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>163</v>
-      </c>
-      <c r="E15" s="33" t="s">
-        <v>165</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="G15" s="70" t="s">
-        <v>307</v>
-      </c>
-      <c r="H15" s="71" t="s">
-        <v>166</v>
-      </c>
-      <c r="I15" s="71" t="s">
-        <v>308</v>
+        <v>157</v>
+      </c>
+      <c r="E15" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="F15" s="65" t="s">
+        <v>158</v>
+      </c>
+      <c r="G15" s="65" t="s">
+        <v>297</v>
+      </c>
+      <c r="H15" s="67" t="s">
+        <v>160</v>
+      </c>
+      <c r="I15" s="67" t="s">
+        <v>298</v>
       </c>
       <c r="J15" s="10" t="s">
         <v>111</v>
       </c>
       <c r="K15" s="24" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="L15" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="N15" s="74" t="s">
-        <v>306</v>
-      </c>
-      <c r="O15" s="75" t="s">
-        <v>315</v>
-      </c>
-      <c r="P15" s="70" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" s="17" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="68"/>
-      <c r="B16" s="51" t="s">
-        <v>275</v>
-      </c>
-      <c r="C16" s="44" t="s">
-        <v>175</v>
-      </c>
-      <c r="D16" s="38" t="s">
+      <c r="N15" s="70" t="s">
+        <v>296</v>
+      </c>
+      <c r="O15" s="71" t="s">
+        <v>305</v>
+      </c>
+      <c r="P15" s="65" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" s="17" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="63"/>
+      <c r="B16" s="49" t="s">
+        <v>268</v>
+      </c>
+      <c r="C16" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="D16" s="36" t="s">
+        <v>167</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="F16" s="67" t="s">
+        <v>172</v>
+      </c>
+      <c r="G16" s="37" t="s">
         <v>173</v>
       </c>
-      <c r="E16" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="F16" s="39" t="s">
-        <v>178</v>
-      </c>
-      <c r="G16" s="30" t="s">
-        <v>179</v>
-      </c>
-      <c r="H16" s="30" t="s">
-        <v>166</v>
-      </c>
-      <c r="I16" s="37" t="s">
-        <v>50</v>
+      <c r="H16" s="67" t="s">
+        <v>382</v>
+      </c>
+      <c r="I16" s="67" t="s">
+        <v>383</v>
       </c>
       <c r="J16" s="10" t="s">
         <v>111</v>
       </c>
       <c r="K16" s="24" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="L16" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="N16" s="40"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="39" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" s="17" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="68"/>
-      <c r="B17" s="51" t="s">
-        <v>276</v>
+      <c r="N16" s="66" t="s">
+        <v>384</v>
+      </c>
+      <c r="O16" s="73" t="s">
+        <v>384</v>
+      </c>
+      <c r="P16" s="67" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" s="17" customFormat="1" ht="116" x14ac:dyDescent="0.35">
+      <c r="A17" s="63"/>
+      <c r="B17" s="49" t="s">
+        <v>269</v>
       </c>
       <c r="C17" s="16" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>182</v>
-      </c>
-      <c r="F17" s="17" t="s">
-        <v>183</v>
+        <v>176</v>
+      </c>
+      <c r="F17" s="67" t="s">
+        <v>177</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>184</v>
-      </c>
-      <c r="H17" s="42" t="s">
-        <v>186</v>
-      </c>
-      <c r="I17" s="39" t="s">
-        <v>185</v>
+        <v>178</v>
+      </c>
+      <c r="H17" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="I17" s="37" t="s">
+        <v>179</v>
       </c>
       <c r="J17" s="10" t="s">
         <v>111</v>
       </c>
       <c r="K17" s="24" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="L17" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="N17" s="40"/>
-      <c r="O17" s="23"/>
+      <c r="N17" s="72" t="s">
+        <v>306</v>
+      </c>
+      <c r="O17" s="71" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="18" spans="1:16" s="17" customFormat="1" ht="116" x14ac:dyDescent="0.35">
-      <c r="A18" s="68"/>
-      <c r="B18" s="51" t="s">
-        <v>277</v>
+      <c r="A18" s="63"/>
+      <c r="B18" s="49" t="s">
+        <v>270</v>
       </c>
       <c r="C18" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="E18" s="33" t="s">
-        <v>165</v>
-      </c>
-      <c r="F18" s="39" t="s">
-        <v>200</v>
-      </c>
-      <c r="G18" s="39" t="s">
-        <v>197</v>
+        <v>183</v>
+      </c>
+      <c r="E18" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="F18" s="67" t="s">
+        <v>194</v>
+      </c>
+      <c r="G18" s="37" t="s">
+        <v>191</v>
       </c>
       <c r="H18" s="24" t="s">
-        <v>187</v>
-      </c>
-      <c r="I18" s="39" t="s">
-        <v>188</v>
+        <v>181</v>
+      </c>
+      <c r="I18" s="37" t="s">
+        <v>182</v>
       </c>
       <c r="J18" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="K18" s="31" t="s">
+      <c r="K18" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="L18" s="30" t="s">
-        <v>215</v>
-      </c>
-      <c r="N18" s="39" t="s">
-        <v>190</v>
-      </c>
-      <c r="O18" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="P18" s="50"/>
-    </row>
-    <row r="19" spans="1:16" s="17" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="68"/>
-      <c r="B19" s="51" t="s">
-        <v>278</v>
+      <c r="L18" s="40" t="s">
+        <v>208</v>
+      </c>
+      <c r="N18" s="37" t="s">
+        <v>184</v>
+      </c>
+      <c r="O18" s="73" t="s">
+        <v>308</v>
+      </c>
+      <c r="P18" s="48"/>
+    </row>
+    <row r="19" spans="1:16" s="17" customFormat="1" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="63"/>
+      <c r="B19" s="76" t="s">
+        <v>309</v>
       </c>
       <c r="C19" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="43" t="s">
-        <v>193</v>
+      <c r="D19" s="41" t="s">
+        <v>187</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="F19" s="39" t="s">
-        <v>196</v>
-      </c>
-      <c r="G19" s="40"/>
-      <c r="H19" s="30" t="s">
-        <v>166</v>
-      </c>
-      <c r="I19" s="37" t="s">
-        <v>50</v>
+      <c r="F19" s="67" t="s">
+        <v>190</v>
+      </c>
+      <c r="G19" s="67" t="s">
+        <v>311</v>
+      </c>
+      <c r="H19" s="67" t="s">
+        <v>143</v>
+      </c>
+      <c r="I19" s="67" t="s">
+        <v>310</v>
       </c>
       <c r="J19" s="24" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="K19" s="24" t="s">
-        <v>194</v>
-      </c>
-      <c r="L19" s="39" t="s">
-        <v>216</v>
-      </c>
-      <c r="N19" s="40"/>
-      <c r="O19" s="23"/>
-    </row>
-    <row r="20" spans="1:16" s="17" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="68"/>
-      <c r="B20" s="51" t="s">
-        <v>279</v>
+        <v>188</v>
+      </c>
+      <c r="L19" s="37" t="s">
+        <v>209</v>
+      </c>
+      <c r="N19" s="67" t="s">
+        <v>312</v>
+      </c>
+      <c r="O19" s="73" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" s="17" customFormat="1" ht="116" x14ac:dyDescent="0.35">
+      <c r="A20" s="63"/>
+      <c r="B20" s="76" t="s">
+        <v>353</v>
       </c>
       <c r="C20" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="38" t="s">
-        <v>198</v>
+      <c r="D20" s="36" t="s">
+        <v>192</v>
       </c>
       <c r="E20" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="F20" s="39" t="s">
-        <v>199</v>
-      </c>
-      <c r="G20" s="40"/>
-      <c r="H20" s="30" t="s">
-        <v>166</v>
-      </c>
-      <c r="I20" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="J20" s="24" t="s">
-        <v>202</v>
+      <c r="F20" s="67" t="s">
+        <v>193</v>
+      </c>
+      <c r="G20" s="38"/>
+      <c r="H20" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="I20" s="67" t="s">
+        <v>360</v>
+      </c>
+      <c r="J20" s="65" t="s">
+        <v>354</v>
       </c>
       <c r="K20" s="24" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="L20" s="24" t="s">
-        <v>217</v>
-      </c>
-      <c r="N20" s="40"/>
-      <c r="O20" s="23"/>
-    </row>
-    <row r="21" spans="1:16" s="17" customFormat="1" ht="87" x14ac:dyDescent="0.35">
-      <c r="A21" s="68"/>
-      <c r="B21" s="51" t="s">
-        <v>282</v>
+        <v>210</v>
+      </c>
+      <c r="N20" s="67" t="s">
+        <v>356</v>
+      </c>
+      <c r="O20" s="73" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" s="17" customFormat="1" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="63"/>
+      <c r="B21" s="76" t="s">
+        <v>355</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="39" t="s">
-        <v>212</v>
+        <v>17</v>
+      </c>
+      <c r="D21" s="36" t="s">
+        <v>192</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="F21" s="39" t="s">
-        <v>213</v>
-      </c>
-      <c r="G21" s="39" t="s">
-        <v>214</v>
-      </c>
-      <c r="H21" s="39" t="s">
+      <c r="F21" s="67" t="s">
+        <v>193</v>
+      </c>
+      <c r="G21" s="38"/>
+      <c r="H21" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="I21" s="67" t="s">
+        <v>360</v>
+      </c>
+      <c r="J21" s="65" t="s">
+        <v>212</v>
+      </c>
+      <c r="K21" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="L21" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="I21" s="39" t="s">
-        <v>211</v>
-      </c>
-      <c r="J21" s="24" t="s">
-        <v>219</v>
-      </c>
-      <c r="K21" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="L21" s="39" t="s">
-        <v>215</v>
-      </c>
-      <c r="N21" s="40"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="50" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" s="17" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="68"/>
-      <c r="B22" s="51" t="s">
-        <v>280</v>
+      <c r="N21" s="67" t="s">
+        <v>358</v>
+      </c>
+      <c r="O21" s="73" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" s="17" customFormat="1" ht="145" x14ac:dyDescent="0.35">
+      <c r="A22" s="63"/>
+      <c r="B22" s="49" t="s">
+        <v>273</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="43" t="s">
-        <v>221</v>
+        <v>20</v>
+      </c>
+      <c r="D22" s="37" t="s">
+        <v>205</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="F22" s="39" t="s">
+      <c r="F22" s="67" t="s">
+        <v>206</v>
+      </c>
+      <c r="G22" s="37" t="s">
+        <v>207</v>
+      </c>
+      <c r="H22" s="37" t="s">
+        <v>203</v>
+      </c>
+      <c r="I22" s="37" t="s">
+        <v>204</v>
+      </c>
+      <c r="J22" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="K22" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="L22" s="37" t="s">
+        <v>208</v>
+      </c>
+      <c r="N22" s="67" t="s">
+        <v>351</v>
+      </c>
+      <c r="O22" s="73" t="s">
+        <v>352</v>
+      </c>
+      <c r="P22" s="48" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" s="17" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="63"/>
+      <c r="B23" s="76" t="s">
+        <v>271</v>
+      </c>
+      <c r="C23" s="77" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="41" t="s">
+        <v>214</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F23" s="67" t="s">
+        <v>216</v>
+      </c>
+      <c r="G23" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="H23" s="67" t="s">
+        <v>348</v>
+      </c>
+      <c r="I23" s="67" t="s">
+        <v>349</v>
+      </c>
+      <c r="J23" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="K23" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="L23" s="37" t="s">
+        <v>208</v>
+      </c>
+      <c r="N23" s="30" t="s">
         <v>223</v>
       </c>
-      <c r="G22" s="24" t="s">
+      <c r="O23" s="71" t="s">
+        <v>350</v>
+      </c>
+      <c r="P23" s="48" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" s="17" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="63"/>
+      <c r="B24" s="49" t="s">
+        <v>272</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="30" t="s">
+        <v>224</v>
+      </c>
+      <c r="E24" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="F24" s="56" t="s">
+        <v>219</v>
+      </c>
+      <c r="G24" s="37" t="s">
+        <v>221</v>
+      </c>
+      <c r="H24" s="37" t="s">
+        <v>203</v>
+      </c>
+      <c r="I24" s="37" t="s">
         <v>222</v>
       </c>
-      <c r="H22" s="30" t="s">
-        <v>166</v>
-      </c>
-      <c r="I22" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="J22" s="24" t="s">
-        <v>219</v>
-      </c>
-      <c r="K22" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="L22" s="39" t="s">
-        <v>215</v>
-      </c>
-      <c r="N22" s="30" t="s">
-        <v>230</v>
-      </c>
-      <c r="O22" s="23"/>
-      <c r="P22" s="50" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" s="17" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="68"/>
-      <c r="B23" s="52" t="s">
-        <v>281</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" s="30" t="s">
+      <c r="J24" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="K24" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="L24" s="37" t="s">
+        <v>209</v>
+      </c>
+      <c r="N24" s="37" t="s">
+        <v>218</v>
+      </c>
+      <c r="O24" s="58" t="s">
+        <v>295</v>
+      </c>
+      <c r="P24" s="37" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" s="17" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="63"/>
+      <c r="B25" s="49" t="s">
+        <v>274</v>
+      </c>
+      <c r="C25" s="42" t="s">
+        <v>227</v>
+      </c>
+      <c r="D25" s="36" t="s">
+        <v>226</v>
+      </c>
+      <c r="E25" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="F25" s="56" t="s">
         <v>231</v>
       </c>
-      <c r="E23" s="64" t="s">
-        <v>69</v>
-      </c>
-      <c r="F23" s="61" t="s">
-        <v>226</v>
-      </c>
-      <c r="G23" s="39" t="s">
-        <v>228</v>
-      </c>
-      <c r="H23" s="39" t="s">
-        <v>210</v>
-      </c>
-      <c r="I23" s="39" t="s">
-        <v>229</v>
-      </c>
-      <c r="J23" s="24" t="s">
-        <v>195</v>
-      </c>
-      <c r="K23" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="L23" s="39" t="s">
-        <v>216</v>
-      </c>
-      <c r="N23" s="39" t="s">
+      <c r="G25" s="37" t="s">
+        <v>232</v>
+      </c>
+      <c r="H25" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="I25" s="37" t="s">
         <v>225</v>
-      </c>
-      <c r="O23" s="63" t="s">
-        <v>305</v>
-      </c>
-      <c r="P23" s="39" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" s="17" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="68"/>
-      <c r="B24" s="52" t="s">
-        <v>283</v>
-      </c>
-      <c r="C24" s="44" t="s">
-        <v>234</v>
-      </c>
-      <c r="D24" s="38" t="s">
-        <v>233</v>
-      </c>
-      <c r="E24" s="33" t="s">
-        <v>165</v>
-      </c>
-      <c r="F24" s="61" t="s">
-        <v>238</v>
-      </c>
-      <c r="G24" s="39" t="s">
-        <v>239</v>
-      </c>
-      <c r="H24" s="39" t="s">
-        <v>187</v>
-      </c>
-      <c r="I24" s="39" t="s">
-        <v>232</v>
-      </c>
-      <c r="J24" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="K24" s="24" t="s">
-        <v>237</v>
-      </c>
-      <c r="L24" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="N24" s="61" t="s">
-        <v>240</v>
-      </c>
-      <c r="O24" s="63" t="s">
-        <v>292</v>
-      </c>
-      <c r="P24" s="61" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" s="17" customFormat="1" ht="116" x14ac:dyDescent="0.35">
-      <c r="A25" s="68"/>
-      <c r="B25" s="52" t="s">
-        <v>284</v>
-      </c>
-      <c r="C25" s="44" t="s">
-        <v>241</v>
-      </c>
-      <c r="D25" s="61" t="s">
-        <v>242</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="F25" s="71" t="s">
-        <v>246</v>
-      </c>
-      <c r="G25" s="17" t="s">
-        <v>312</v>
-      </c>
-      <c r="H25" s="39" t="s">
-        <v>187</v>
-      </c>
-      <c r="I25" s="39" t="s">
-        <v>232</v>
       </c>
       <c r="J25" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="K25" s="39" t="s">
-        <v>243</v>
-      </c>
-      <c r="L25" s="30" t="s">
-        <v>244</v>
-      </c>
-      <c r="N25" s="17" t="s">
-        <v>311</v>
-      </c>
-      <c r="O25" s="63" t="s">
-        <v>304</v>
-      </c>
-      <c r="P25" s="39" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" s="17" customFormat="1" ht="124" x14ac:dyDescent="0.35">
-      <c r="A26" s="68"/>
-      <c r="B26" s="52" t="s">
-        <v>285</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D26" s="38" t="s">
-        <v>248</v>
+      <c r="K25" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="L25" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="N25" s="56" t="s">
+        <v>233</v>
+      </c>
+      <c r="O25" s="58" t="s">
+        <v>282</v>
+      </c>
+      <c r="P25" s="56" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" s="17" customFormat="1" ht="116" x14ac:dyDescent="0.35">
+      <c r="A26" s="63"/>
+      <c r="B26" s="76" t="s">
+        <v>275</v>
+      </c>
+      <c r="C26" s="42" t="s">
+        <v>234</v>
+      </c>
+      <c r="D26" s="56" t="s">
+        <v>235</v>
       </c>
       <c r="E26" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="F26" s="71" t="s">
+      <c r="F26" s="67" t="s">
+        <v>239</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="H26" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="I26" s="37" t="s">
+        <v>225</v>
+      </c>
+      <c r="J26" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="K26" s="37" t="s">
+        <v>236</v>
+      </c>
+      <c r="L26" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="N26" s="17" t="s">
+        <v>301</v>
+      </c>
+      <c r="O26" s="58" t="s">
+        <v>294</v>
+      </c>
+      <c r="P26" s="37" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" s="17" customFormat="1" ht="124" x14ac:dyDescent="0.35">
+      <c r="A27" s="63"/>
+      <c r="B27" s="49" t="s">
+        <v>276</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="36" t="s">
+        <v>241</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F27" s="67" t="s">
+        <v>242</v>
+      </c>
+      <c r="G27" s="68" t="s">
+        <v>303</v>
+      </c>
+      <c r="H27" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="I27" s="67" t="s">
+        <v>300</v>
+      </c>
+      <c r="J27" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="K27" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="L27" s="37" t="s">
+        <v>208</v>
+      </c>
+      <c r="N27" s="37" t="s">
+        <v>240</v>
+      </c>
+      <c r="O27" s="26" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" s="17" customFormat="1" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="63"/>
+      <c r="B28" s="49" t="s">
+        <v>277</v>
+      </c>
+      <c r="C28" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="E28" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="F28" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="G28" s="37" t="s">
+        <v>245</v>
+      </c>
+      <c r="H28" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="I28" s="56" t="s">
+        <v>279</v>
+      </c>
+      <c r="J28" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="K28" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="L28" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="N28" s="56" t="s">
+        <v>244</v>
+      </c>
+      <c r="O28" s="58" t="s">
+        <v>283</v>
+      </c>
+      <c r="P28" s="48" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" s="17" customFormat="1" ht="116" x14ac:dyDescent="0.35">
+      <c r="A29" s="63"/>
+      <c r="B29" s="76" t="s">
+        <v>341</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="37" t="s">
+        <v>248</v>
+      </c>
+      <c r="E29" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="F29" s="56" t="s">
+        <v>250</v>
+      </c>
+      <c r="G29" s="56" t="s">
+        <v>292</v>
+      </c>
+      <c r="H29" s="57" t="s">
+        <v>281</v>
+      </c>
+      <c r="I29" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="J29" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="K29" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="L29" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="N29" s="56" t="s">
+        <v>291</v>
+      </c>
+      <c r="O29" s="58" t="s">
+        <v>293</v>
+      </c>
+      <c r="P29" s="48" t="s">
         <v>249</v>
       </c>
-      <c r="G26" s="72" t="s">
-        <v>313</v>
-      </c>
-      <c r="H26" s="39" t="s">
-        <v>166</v>
-      </c>
-      <c r="I26" s="71" t="s">
-        <v>310</v>
-      </c>
-      <c r="J26" s="24" t="s">
-        <v>219</v>
-      </c>
-      <c r="K26" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="L26" s="39" t="s">
-        <v>215</v>
-      </c>
-      <c r="N26" s="39" t="s">
-        <v>247</v>
-      </c>
-      <c r="O26" s="26" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" s="17" customFormat="1" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="68"/>
-      <c r="B27" s="52" t="s">
-        <v>286</v>
-      </c>
-      <c r="C27" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" s="39" t="s">
+    </row>
+    <row r="30" spans="1:16" s="17" customFormat="1" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="63"/>
+      <c r="B30" s="76" t="s">
+        <v>278</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F30" s="56" t="s">
+        <v>253</v>
+      </c>
+      <c r="G30" s="40" t="s">
+        <v>254</v>
+      </c>
+      <c r="H30" s="40" t="s">
+        <v>160</v>
+      </c>
+      <c r="I30" s="56" t="s">
+        <v>280</v>
+      </c>
+      <c r="J30" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="K30" s="24" t="s">
+        <v>255</v>
+      </c>
+      <c r="L30" s="37" t="s">
+        <v>256</v>
+      </c>
+      <c r="N30" s="67" t="s">
+        <v>257</v>
+      </c>
+      <c r="O30" s="58" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" s="17" customFormat="1" ht="232" x14ac:dyDescent="0.35">
+      <c r="A31" s="63"/>
+      <c r="B31" s="78" t="s">
+        <v>342</v>
+      </c>
+      <c r="C31" s="77" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" s="67" t="s">
+        <v>326</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F31" s="66" t="s">
+        <v>327</v>
+      </c>
+      <c r="G31" s="38"/>
+      <c r="H31" s="72" t="s">
+        <v>181</v>
+      </c>
+      <c r="I31" s="72" t="s">
+        <v>99</v>
+      </c>
+      <c r="J31" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="K31" s="67" t="s">
+        <v>335</v>
+      </c>
+      <c r="L31" s="67" t="s">
+        <v>336</v>
+      </c>
+      <c r="N31" s="38"/>
+      <c r="O31" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="P31" s="67" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" s="17" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="63"/>
+      <c r="B32" s="78" t="s">
+        <v>338</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" s="67" t="s">
+        <v>325</v>
+      </c>
+      <c r="E32" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="F32" s="67" t="s">
+        <v>337</v>
+      </c>
+      <c r="G32" s="72" t="s">
+        <v>371</v>
+      </c>
+      <c r="H32" s="72" t="s">
+        <v>181</v>
+      </c>
+      <c r="I32" s="72" t="s">
+        <v>99</v>
+      </c>
+      <c r="J32" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="K32" s="67" t="s">
+        <v>331</v>
+      </c>
+      <c r="L32" s="67" t="s">
+        <v>332</v>
+      </c>
+      <c r="N32" s="38"/>
+      <c r="O32" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="P32" s="48" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" s="17" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="63"/>
+      <c r="B33" s="76" t="s">
+        <v>340</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" s="67" t="s">
         <v>117</v>
       </c>
-      <c r="E27" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="F27" s="61" t="s">
-        <v>250</v>
-      </c>
-      <c r="G27" s="39" t="s">
+      <c r="E33" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F33" s="67" t="s">
+        <v>334</v>
+      </c>
+      <c r="G33" s="67" t="s">
+        <v>364</v>
+      </c>
+      <c r="H33" s="67" t="s">
+        <v>143</v>
+      </c>
+      <c r="I33" s="67" t="s">
+        <v>363</v>
+      </c>
+      <c r="J33" s="24" t="s">
         <v>252</v>
       </c>
-      <c r="H27" s="39" t="s">
-        <v>187</v>
-      </c>
-      <c r="I27" s="61" t="s">
-        <v>289</v>
-      </c>
-      <c r="J27" s="24" t="s">
+      <c r="K33" s="65" t="s">
+        <v>329</v>
+      </c>
+      <c r="L33" s="65" t="s">
+        <v>330</v>
+      </c>
+      <c r="N33" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="O33" s="73" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" s="17" customFormat="1" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="63"/>
+      <c r="B34" s="76" t="s">
+        <v>339</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34" s="67" t="s">
+        <v>324</v>
+      </c>
+      <c r="E34" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="F34" s="67" t="s">
+        <v>333</v>
+      </c>
+      <c r="G34" s="38"/>
+      <c r="H34" s="67" t="s">
+        <v>181</v>
+      </c>
+      <c r="I34" s="67" t="s">
+        <v>279</v>
+      </c>
+      <c r="J34" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="K34" s="67" t="s">
+        <v>331</v>
+      </c>
+      <c r="L34" s="67" t="s">
+        <v>332</v>
+      </c>
+      <c r="N34" s="67" t="s">
+        <v>365</v>
+      </c>
+      <c r="O34" s="73" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" s="17" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="63"/>
+      <c r="B35" s="76" t="s">
+        <v>343</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D35" s="67" t="s">
+        <v>314</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F35" s="67" t="s">
+        <v>323</v>
+      </c>
+      <c r="G35" s="38"/>
+      <c r="H35" s="40" t="s">
+        <v>160</v>
+      </c>
+      <c r="I35" s="72" t="s">
+        <v>368</v>
+      </c>
+      <c r="J35" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="K35" s="67" t="s">
+        <v>372</v>
+      </c>
+      <c r="L35" s="67" t="s">
+        <v>112</v>
+      </c>
+      <c r="N35" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="O35" s="73" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" s="17" customFormat="1" ht="203" x14ac:dyDescent="0.35">
+      <c r="A36" s="63"/>
+      <c r="B36" s="76" t="s">
+        <v>344</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D36" s="67" t="s">
+        <v>315</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F36" s="67" t="s">
+        <v>322</v>
+      </c>
+      <c r="G36" s="38"/>
+      <c r="H36" s="72" t="s">
+        <v>375</v>
+      </c>
+      <c r="I36" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="J36" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="K36" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="L36" s="67" t="s">
+        <v>146</v>
+      </c>
+      <c r="N36" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="O36" s="73" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" s="17" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A37" s="63"/>
+      <c r="B37" s="76" t="s">
+        <v>345</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D37" s="67" t="s">
+        <v>316</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F37" s="67" t="s">
+        <v>321</v>
+      </c>
+      <c r="G37" s="67" t="s">
+        <v>379</v>
+      </c>
+      <c r="H37" s="40" t="s">
+        <v>160</v>
+      </c>
+      <c r="I37" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="J37" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="K37" s="67" t="s">
+        <v>372</v>
+      </c>
+      <c r="L37" s="67" t="s">
+        <v>146</v>
+      </c>
+      <c r="N37" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="O37" s="73" t="s">
+        <v>378</v>
+      </c>
+      <c r="P37" s="48" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" s="17" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+      <c r="A38" s="63"/>
+      <c r="B38" s="76" t="s">
+        <v>346</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D38" s="67" t="s">
+        <v>315</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F38" s="67" t="s">
+        <v>320</v>
+      </c>
+      <c r="G38" s="67" t="s">
+        <v>380</v>
+      </c>
+      <c r="H38" s="40" t="s">
+        <v>160</v>
+      </c>
+      <c r="I38" s="72" t="s">
+        <v>369</v>
+      </c>
+      <c r="J38" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="K38" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="L38" s="67" t="s">
+        <v>146</v>
+      </c>
+      <c r="N38" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="O38" s="73" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" s="17" customFormat="1" ht="174" x14ac:dyDescent="0.35">
+      <c r="A39" s="63"/>
+      <c r="B39" s="76" t="s">
+        <v>347</v>
+      </c>
+      <c r="C39" s="82" t="s">
+        <v>37</v>
+      </c>
+      <c r="D39" s="67" t="s">
+        <v>318</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F39" s="67" t="s">
+        <v>319</v>
+      </c>
+      <c r="G39" s="67" t="s">
+        <v>381</v>
+      </c>
+      <c r="H39" s="72" t="s">
+        <v>281</v>
+      </c>
+      <c r="I39" s="72" t="s">
+        <v>370</v>
+      </c>
+      <c r="J39" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="K39" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="L39" s="67" t="s">
+        <v>146</v>
+      </c>
+      <c r="N39" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="O39" s="73" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A40" s="63"/>
+    </row>
+    <row r="41" spans="1:16" s="79" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="80" t="s">
+        <v>361</v>
+      </c>
+      <c r="O41" s="81"/>
+    </row>
+    <row r="42" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A42" s="63"/>
+      <c r="B42" s="75" t="s">
+        <v>395</v>
+      </c>
+      <c r="C42" s="75" t="s">
+        <v>362</v>
+      </c>
+      <c r="D42" s="65" t="s">
+        <v>391</v>
+      </c>
+      <c r="E42" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="F42" s="65" t="s">
+        <v>385</v>
+      </c>
+      <c r="G42" s="65" t="s">
+        <v>387</v>
+      </c>
+      <c r="H42" s="72" t="s">
+        <v>281</v>
+      </c>
+      <c r="I42" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="J42" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="K27" s="24" t="s">
-        <v>253</v>
-      </c>
-      <c r="L27" s="30" t="s">
-        <v>244</v>
-      </c>
-      <c r="N27" s="61" t="s">
-        <v>251</v>
-      </c>
-      <c r="O27" s="63" t="s">
-        <v>293</v>
-      </c>
-      <c r="P27" s="50" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" s="17" customFormat="1" ht="116" x14ac:dyDescent="0.35">
-      <c r="A28" s="68"/>
-      <c r="B28" s="52" t="s">
-        <v>287</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" s="39" t="s">
-        <v>255</v>
-      </c>
-      <c r="E28" s="33" t="s">
-        <v>165</v>
-      </c>
-      <c r="F28" s="61" t="s">
-        <v>257</v>
-      </c>
-      <c r="G28" s="61" t="s">
-        <v>302</v>
-      </c>
-      <c r="H28" s="62" t="s">
-        <v>291</v>
-      </c>
-      <c r="I28" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="J28" s="24" t="s">
-        <v>258</v>
-      </c>
-      <c r="K28" s="39" t="s">
+      <c r="K42" s="65" t="s">
+        <v>393</v>
+      </c>
+      <c r="L42" s="65" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" ht="217.5" x14ac:dyDescent="0.35">
+      <c r="A43" s="63"/>
+      <c r="B43" s="75" t="s">
+        <v>397</v>
+      </c>
+      <c r="C43" s="75" t="s">
+        <v>396</v>
+      </c>
+      <c r="D43" s="65" t="s">
+        <v>392</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F43" s="65" t="s">
+        <v>386</v>
+      </c>
+      <c r="G43" s="65" t="s">
+        <v>390</v>
+      </c>
+      <c r="H43" s="65" t="s">
+        <v>389</v>
+      </c>
+      <c r="I43" s="65" t="s">
+        <v>388</v>
+      </c>
+      <c r="J43" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="K43" s="65" t="s">
+        <v>55</v>
+      </c>
+      <c r="L43" s="65" t="s">
+        <v>394</v>
+      </c>
+      <c r="O43" s="83"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A44" s="17"/>
+      <c r="B44" s="65"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A45" s="17"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A46" s="17"/>
+    </row>
+    <row r="47" spans="1:16" s="43" customFormat="1" ht="145" x14ac:dyDescent="0.35">
+      <c r="A47" s="25"/>
+      <c r="C47" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47" s="44" t="s">
+        <v>136</v>
+      </c>
+      <c r="E47" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="F47" s="44" t="s">
+        <v>198</v>
+      </c>
+      <c r="H47" s="44" t="s">
+        <v>199</v>
+      </c>
+      <c r="I47" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="K47" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="L28" s="39" t="s">
-        <v>146</v>
-      </c>
-      <c r="N28" s="61" t="s">
-        <v>301</v>
-      </c>
-      <c r="O28" s="63" t="s">
-        <v>303</v>
-      </c>
-      <c r="P28" s="50" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" s="17" customFormat="1" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="68"/>
-      <c r="B29" s="52" t="s">
-        <v>288</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D29" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="F29" s="61" t="s">
-        <v>260</v>
-      </c>
-      <c r="G29" s="42" t="s">
-        <v>261</v>
-      </c>
-      <c r="H29" s="42" t="s">
-        <v>166</v>
-      </c>
-      <c r="I29" s="61" t="s">
-        <v>290</v>
-      </c>
-      <c r="J29" s="24" t="s">
-        <v>259</v>
-      </c>
-      <c r="K29" s="24" t="s">
-        <v>262</v>
-      </c>
-      <c r="L29" s="39" t="s">
-        <v>263</v>
-      </c>
-      <c r="N29" s="71" t="s">
-        <v>264</v>
-      </c>
-      <c r="O29" s="63" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" s="17" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="68"/>
-      <c r="C30" s="58" t="s">
-        <v>29</v>
-      </c>
-      <c r="F30" s="17" t="s">
+      <c r="N47" s="44" t="s">
+        <v>200</v>
+      </c>
+      <c r="O47" s="46"/>
+      <c r="P47" s="44" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" s="43" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A48" s="25"/>
+      <c r="C48" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="F48" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="I30" s="35" t="s">
+      <c r="I48" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="O30" s="34" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" s="17" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="68"/>
-      <c r="C31" s="58" t="s">
-        <v>30</v>
-      </c>
-      <c r="F31" s="17" t="s">
+      <c r="O48" s="46"/>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A49" s="25"/>
+      <c r="N49" s="38"/>
+    </row>
+    <row r="50" spans="1:16" s="38" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A50" s="25"/>
+      <c r="C50" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="D50" s="30" t="s">
+        <v>201</v>
+      </c>
+      <c r="F50" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="I31" s="35" t="s">
+      <c r="I50" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="O31" s="34" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" s="17" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="68"/>
-      <c r="C32" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="F32" s="17" t="s">
+      <c r="O50" s="23"/>
+      <c r="P50" s="30" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" s="38" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A51" s="25"/>
+      <c r="C51" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="D51" s="30" t="s">
+        <v>205</v>
+      </c>
+      <c r="F51" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="I32" s="35" t="s">
+      <c r="I51" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="N32" s="36" t="s">
-        <v>150</v>
-      </c>
-      <c r="O32" s="34" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" s="17" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="68"/>
-      <c r="C33" s="58" t="s">
-        <v>32</v>
-      </c>
-      <c r="F33" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="I33" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="O33" s="34" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" s="17" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="68"/>
-      <c r="C34" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="F34" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="I34" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="N34" s="36" t="s">
-        <v>153</v>
-      </c>
-      <c r="O34" s="34" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" s="17" customFormat="1" ht="203" x14ac:dyDescent="0.35">
-      <c r="A35" s="68"/>
-      <c r="C35" s="58" t="s">
-        <v>34</v>
-      </c>
-      <c r="F35" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="I35" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="N35" s="36" t="s">
-        <v>155</v>
-      </c>
-      <c r="O35" s="34" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" s="17" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="68"/>
-      <c r="C36" s="58" t="s">
-        <v>35</v>
-      </c>
-      <c r="F36" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="I36" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="N36" s="36" t="s">
-        <v>157</v>
-      </c>
-      <c r="O36" s="34" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" s="17" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A37" s="68"/>
-      <c r="C37" s="58" t="s">
-        <v>36</v>
-      </c>
-      <c r="D37" s="36"/>
-      <c r="F37" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="I37" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="N37" s="36" t="s">
-        <v>159</v>
-      </c>
-      <c r="O37" s="34" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" s="17" customFormat="1" ht="174" x14ac:dyDescent="0.35">
-      <c r="A38" s="68"/>
-      <c r="C38" s="59" t="s">
-        <v>37</v>
-      </c>
-      <c r="F38" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="I38" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="N38" s="36" t="s">
-        <v>161</v>
-      </c>
-      <c r="O38" s="34" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A39" s="17"/>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A40" s="17"/>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A41" s="17"/>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A42" s="17"/>
-    </row>
-    <row r="43" spans="1:16" s="45" customFormat="1" ht="145" x14ac:dyDescent="0.35">
-      <c r="A43" s="25"/>
-      <c r="C43" s="49" t="s">
-        <v>18</v>
-      </c>
-      <c r="D43" s="46" t="s">
-        <v>136</v>
-      </c>
-      <c r="E43" s="45" t="s">
-        <v>165</v>
-      </c>
-      <c r="F43" s="46" t="s">
-        <v>205</v>
-      </c>
-      <c r="H43" s="46" t="s">
-        <v>206</v>
-      </c>
-      <c r="I43" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="K43" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="N43" s="46" t="s">
-        <v>207</v>
-      </c>
-      <c r="O43" s="48"/>
-      <c r="P43" s="46" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" s="45" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A44" s="25"/>
-      <c r="C44" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="F44" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="I44" s="47" t="s">
-        <v>50</v>
-      </c>
-      <c r="O44" s="48"/>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A45" s="25"/>
-    </row>
-    <row r="46" spans="1:16" s="40" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A46" s="25"/>
-      <c r="C46" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="D46" s="30" t="s">
-        <v>208</v>
-      </c>
-      <c r="F46" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="I46" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="O46" s="23"/>
-      <c r="P46" s="30" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" s="40" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A47" s="25"/>
-      <c r="C47" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="D47" s="30" t="s">
-        <v>212</v>
-      </c>
-      <c r="F47" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="I47" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="O47" s="23"/>
-      <c r="P47" s="30" t="s">
-        <v>218</v>
-      </c>
+      <c r="N51" s="4"/>
+      <c r="O51" s="23"/>
+      <c r="P51" s="30" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A52" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -3364,28 +4092,28 @@
   </cols>
   <sheetData>
     <row r="7" spans="1:2" ht="64" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="32"/>
+      <c r="A7" s="31"/>
       <c r="B7" s="27" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="64" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="12"/>
       <c r="B8" s="27" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="64" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="33"/>
+      <c r="A9" s="32"/>
       <c r="B9" s="27" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="64" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="1:2" ht="64" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="25"/>
       <c r="B11" s="27" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="64" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3395,7 +4123,7 @@
     <row r="16" spans="1:2" ht="64" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="18" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B18" s="29" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" spans="1:15" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
@@ -3517,12 +4245,12 @@
     </row>
     <row r="24" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="E24" s="24" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="E26" s="24" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
